--- a/biology/Zoologie/Anodonthyla_vallani/Anodonthyla_vallani.xlsx
+++ b/biology/Zoologie/Anodonthyla_vallani/Anodonthyla_vallani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anodonthyla vallani est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anodonthyla vallani est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la province d'Antananarivo à Madagascar. Elle n'est connue que dans la réserve spéciale d'Ambohitantely, à environ 1 580 m d'altitude[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la province d'Antananarivo à Madagascar. Elle n'est connue que dans la réserve spéciale d'Ambohitantely, à environ 1 580 m d'altitude,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anodonthyla vallani mesure environ  23 mm. Son dos est brun foncé avec quelques taches brun clair dans sa partie postérieure. Son ventre est blanc rosé avec quelques marbrures brun-violacé et quelques petits points blancs dispersés. Son gorge est noirâtre avec des taches blanches[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anodonthyla vallani mesure environ  23 mm. Son dos est brun foncé avec quelques taches brun clair dans sa partie postérieure. Son ventre est blanc rosé avec quelques marbrures brun-violacé et quelques petits points blancs dispersés. Son gorge est noirâtre avec des taches blanches.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, vallani, lui a été donné en référence à Denis Vallan, herpétologiste suisse, en reconnaissance de son travail de pionnier sur les effets de la fragmentation de la forêt sur les amphibiens[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, vallani, lui a été donné en référence à Denis Vallan, herpétologiste suisse, en reconnaissance de son travail de pionnier sur les effets de la fragmentation de la forêt sur les amphibiens.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Vences, Glaw, Köhler &amp; Wollenberg, 2010 : Molecular phylogeny, morphology and bioacoustics reveal five additional species of arboreal microhylid frogs of the genus Anodonthyla from Madagascar. Contributions to Zoology, vol. 79, p. 1-32 (texte intégral).</t>
         </is>
